--- a/src/main/java/util/excelfile/Input.xlsx
+++ b/src/main/java/util/excelfile/Input.xlsx
@@ -2,46 +2,38 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caohieu/Downloads/Hotel-Booking-master/hotel/src/main/java/util/excelfile/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caohieu/Desktop/HotelManagementSystem/src/main/java/util/excelfile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AA5CC4-2C2B-9F4B-AE26-838A81E795D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDA4625-5F75-B446-876F-46253E21E230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="920" windowWidth="28040" windowHeight="17440" xr2:uid="{435D7EF1-BED0-9945-BD41-CCBAB89FE1E8}"/>
+    <workbookView xWindow="1980" yWindow="1760" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Client insert" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Client insert" sheetId="6" r:id="rId1"/>
+    <sheet name="Hotel insert" sheetId="4" r:id="rId2"/>
+    <sheet name="Room insert" sheetId="5" r:id="rId3"/>
+    <sheet name="Service insert" sheetId="3" r:id="rId4"/>
+    <sheet name="User insert" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="156">
   <si>
     <t>ID CARD</t>
   </si>
   <si>
-    <t>TELEPHONE</t>
-  </si>
-  <si>
     <t>ADDRESS</t>
   </si>
   <si>
@@ -114,19 +106,40 @@
     <t>13142543</t>
   </si>
   <si>
-    <t>12345244</t>
-  </si>
-  <si>
-    <t>34523432</t>
-  </si>
-  <si>
-    <t>54321445</t>
-  </si>
-  <si>
-    <t>34253553</t>
-  </si>
-  <si>
-    <t>34325235</t>
+    <t>USER NAME</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>POSITION</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>UNITY</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>STAR LEVEL</t>
+  </si>
+  <si>
+    <t>TEL</t>
+  </si>
+  <si>
+    <t>CLIENT ID</t>
   </si>
   <si>
     <t>0909628756</t>
@@ -142,6 +155,348 @@
   </si>
   <si>
     <t>0909628760</t>
+  </si>
+  <si>
+    <t>CITY</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>Dương Thị B</t>
+  </si>
+  <si>
+    <t>Ngô D</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn C</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn D</t>
+  </si>
+  <si>
+    <t>Nguyễn Kim</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>LOTTE LEGEND HOTEL</t>
+  </si>
+  <si>
+    <t>REX HOTEL</t>
+  </si>
+  <si>
+    <t>2A Tôn Đức Thắng</t>
+  </si>
+  <si>
+    <t>141 Nguyễn Huệ</t>
+  </si>
+  <si>
+    <t>HCM</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>Luxury Ho Chi Minh City hotel with casino, connected to the convention center</t>
+  </si>
+  <si>
+    <t>Luxury hotel with full-service spa, connected to the convention center, near Nguyen Hue Walking Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ROOM ID</t>
+  </si>
+  <si>
+    <t>HOTEL ID</t>
+  </si>
+  <si>
+    <t>VIP.101</t>
+  </si>
+  <si>
+    <t>VIP.102</t>
+  </si>
+  <si>
+    <t>VIP.103</t>
+  </si>
+  <si>
+    <t>VIP.104</t>
+  </si>
+  <si>
+    <t>VIP.105</t>
+  </si>
+  <si>
+    <t>VIP.106</t>
+  </si>
+  <si>
+    <t>VIP.107</t>
+  </si>
+  <si>
+    <t>VIP.108</t>
+  </si>
+  <si>
+    <t>VIP.109</t>
+  </si>
+  <si>
+    <t>VIP.110</t>
+  </si>
+  <si>
+    <t>KING.111</t>
+  </si>
+  <si>
+    <t>KING.112</t>
+  </si>
+  <si>
+    <t>KING.113</t>
+  </si>
+  <si>
+    <t>KING.114</t>
+  </si>
+  <si>
+    <t>KING.115</t>
+  </si>
+  <si>
+    <t>SINGLE</t>
+  </si>
+  <si>
+    <t>COUPLE</t>
+  </si>
+  <si>
+    <t>FAMILY</t>
+  </si>
+  <si>
+    <t>Car rental services</t>
+  </si>
+  <si>
+    <t>Catering services</t>
+  </si>
+  <si>
+    <t>Concierge services</t>
+  </si>
+  <si>
+    <t>Doctor on call</t>
+  </si>
+  <si>
+    <t>Dry cleaning</t>
+  </si>
+  <si>
+    <t>Ironing service</t>
+  </si>
+  <si>
+    <t>Massages</t>
+  </si>
+  <si>
+    <t>Transfer and chauffeur driven limousine services</t>
+  </si>
+  <si>
+    <t>Room service (24-hour)</t>
+  </si>
+  <si>
+    <t>Valet parking</t>
+  </si>
+  <si>
+    <t>admin001</t>
+  </si>
+  <si>
+    <t>admin002</t>
+  </si>
+  <si>
+    <t>admin003</t>
+  </si>
+  <si>
+    <t>admin004</t>
+  </si>
+  <si>
+    <t>admin005</t>
+  </si>
+  <si>
+    <t>admin006</t>
+  </si>
+  <si>
+    <t>admin007</t>
+  </si>
+  <si>
+    <t>admin008</t>
+  </si>
+  <si>
+    <t>admin009</t>
+  </si>
+  <si>
+    <t>admin010</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn B</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn E</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn F</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn G</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn H</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn I</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn J</t>
+  </si>
+  <si>
+    <t>123456A</t>
+  </si>
+  <si>
+    <t>Tiếp Tân</t>
+  </si>
+  <si>
+    <t>Quản Lý</t>
+  </si>
+  <si>
+    <t>2 hours</t>
+  </si>
+  <si>
+    <t>20 minutes</t>
+  </si>
+  <si>
+    <t>once</t>
+  </si>
+  <si>
+    <t>1 day</t>
+  </si>
+  <si>
+    <t>once trip</t>
+  </si>
+  <si>
+    <t>24 hours</t>
+  </si>
+  <si>
+    <t>lychan43243243@gmail.com</t>
+  </si>
+  <si>
+    <t>ngothuong76575@gmail.com</t>
+  </si>
+  <si>
+    <t>13142544</t>
+  </si>
+  <si>
+    <t>13142545</t>
+  </si>
+  <si>
+    <t>13142546</t>
+  </si>
+  <si>
+    <t>13142547</t>
+  </si>
+  <si>
+    <t>13142548</t>
+  </si>
+  <si>
+    <t>13142549</t>
+  </si>
+  <si>
+    <t>13142550</t>
+  </si>
+  <si>
+    <t>13142551</t>
+  </si>
+  <si>
+    <t>13142552</t>
+  </si>
+  <si>
+    <t>13142553</t>
+  </si>
+  <si>
+    <t>13142554</t>
+  </si>
+  <si>
+    <t>13142555</t>
+  </si>
+  <si>
+    <t>0909628761</t>
+  </si>
+  <si>
+    <t>0909628762</t>
+  </si>
+  <si>
+    <t>0909628763</t>
+  </si>
+  <si>
+    <t>0909628764</t>
+  </si>
+  <si>
+    <t>0909628765</t>
+  </si>
+  <si>
+    <t>0909628766</t>
+  </si>
+  <si>
+    <t>0909628767</t>
+  </si>
+  <si>
+    <t>hieu225@gmail.com</t>
+  </si>
+  <si>
+    <t>nguyenkhanh3@gmail.com</t>
+  </si>
+  <si>
+    <t>van342@gmail.com</t>
+  </si>
+  <si>
+    <t>thi3465@gmail.com</t>
+  </si>
+  <si>
+    <t>kim2312@gmail.com</t>
+  </si>
+  <si>
+    <t>VIP.201</t>
+  </si>
+  <si>
+    <t>VIP.202</t>
+  </si>
+  <si>
+    <t>VIP.203</t>
+  </si>
+  <si>
+    <t>VIP.204</t>
+  </si>
+  <si>
+    <t>VIP.205</t>
+  </si>
+  <si>
+    <t>VIP.206</t>
+  </si>
+  <si>
+    <t>VIP.207</t>
+  </si>
+  <si>
+    <t>VIP.208</t>
+  </si>
+  <si>
+    <t>VIP.209</t>
+  </si>
+  <si>
+    <t>VIP.210</t>
+  </si>
+  <si>
+    <t>KING.222</t>
+  </si>
+  <si>
+    <t>KING.223</t>
+  </si>
+  <si>
+    <t>KING.224</t>
+  </si>
+  <si>
+    <t>KING.225</t>
+  </si>
+  <si>
+    <t>KING.226</t>
+  </si>
+  <si>
+    <t>meal</t>
   </si>
 </sst>
 </file>
@@ -152,23 +507,9 @@
     <numFmt numFmtId="164" formatCode="00000"/>
     <numFmt numFmtId="165" formatCode="[&lt;=999999][$-1000000]###\-###;[$-1000000]\(##\)\ ###\-###"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -190,16 +531,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
-      <color theme="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="16"/>
+      <sz val="20"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -212,15 +582,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -228,54 +610,131 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -283,7 +742,53 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="48">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -298,23 +803,746 @@
         <sz val="20"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="00000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="22"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -331,17 +1559,75 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{03D3CE69-2CEF-F844-B02E-261D21C4573E}" name="Table3" displayName="Table3" ref="A1:F23" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F23" xr:uid="{03D3CE69-2CEF-F844-B02E-261D21C4573E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table5" displayName="Table5" ref="A1:G14" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44">
+  <autoFilter ref="A1:G14" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CLIENT ID" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ID CARD" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="FULL NAME" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ADDRESS" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="TEL" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="EMAIL" dataDxfId="0" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="NOTE" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table6" displayName="Table6" ref="A1:F3" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36">
+  <autoFilter ref="A1:F3" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D8D3F138-CC12-C647-B3E1-6E3CE737C9F6}" name="FULL NAME" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{5DA00160-89AB-8245-A359-88F5C3271DDF}" name="ADDRESS"/>
-    <tableColumn id="3" xr3:uid="{C641F504-D127-9A41-BC69-02B30E56E352}" name="TELEPHONE"/>
-    <tableColumn id="4" xr3:uid="{552C54B0-3FB1-C44F-86D0-A655A2634CCD}" name="ID CARD"/>
-    <tableColumn id="5" xr3:uid="{C9454E67-7977-F34C-A111-E1C941CDDFDA}" name="EMAIL" dataCellStyle="Hyperlink"/>
-    <tableColumn id="6" xr3:uid="{A205EA2A-B0C8-204A-B315-E9AB88586A02}" name="NOTE"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="HOTEL ID" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="NAME" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="STAR LEVEL" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ADDRESS" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="CITY" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="DESCRIPTION" dataDxfId="30"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table7" displayName="Table7" ref="A1:F31" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
+  <autoFilter ref="A1:F31" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name=" ROOM ID" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOTEL ID" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="NAME" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="TYPE" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="PRICE" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="DESCRIPTION" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table8" displayName="Table8" ref="A1:D11" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
+  <autoFilter ref="A1:D11" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="ID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="NAME" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="UNITY" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="PRICE" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table9" displayName="Table9" ref="A1:E11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+  <autoFilter ref="A1:E11" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="ID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="USER NAME" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="FULL NAME" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="PASSWORD" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="POSITION" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -641,310 +1927,1410 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BAC820-241A-8241-B2D5-CA137F9B8795}">
-  <dimension ref="A1:F27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="34.1640625" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" customWidth="1"/>
-    <col min="5" max="5" width="40.83203125" customWidth="1"/>
-    <col min="6" max="6" width="39.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="52" customWidth="1"/>
+    <col min="7" max="7" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="B3" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="B5" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B7" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="B8" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="B12" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B13" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
+      <c r="B14" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{D7E349E5-4D39-5A40-A001-ECA4BB6F8E71}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{A2E8E5F3-1F52-6C45-AF7A-1E340ADC2BE2}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{6D75BCDD-6A90-0949-94D0-9214BF9F8C7D}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{1A622AA6-6974-8142-B04A-F34834474C6C}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{BC4BE244-1BAB-8149-B822-4F00B75DC343}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{3293E4ED-431A-B04C-B1D9-6C86A08638D8}"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F2" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F3" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672CA5DC-2E5F-CB45-A852-7B39747F42FE}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" customWidth="1"/>
+    <col min="6" max="6" width="63.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72210C9E-BABF-C645-A08E-0520C531DA1A}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="38.1640625" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="5" max="5" width="39.83203125" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1800000</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1800000</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2600000</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2600000</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3500000</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1800000</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1800000</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2600000</v>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2600000</v>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3500000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="4" max="4" width="45.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="1">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="1">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="1">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="1">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="1">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="1">
+        <v>200000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/src/main/java/util/excelfile/Input.xlsx
+++ b/src/main/java/util/excelfile/Input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caohieu/Desktop/HotelManagementSystem/src/main/java/util/excelfile/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caohieu/Downloads/Hotel-Booking-master/hotel/src/main/java/util/excelfile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDA4625-5F75-B446-876F-46253E21E230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DC8BE0-03AC-1E4B-A01E-1C1CB6AA3326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1760" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6980" yWindow="1840" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Client insert" sheetId="6" r:id="rId1"/>
@@ -752,6 +752,619 @@
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="22"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
         <u/>
         <vertAlign val="baseline"/>
         <sz val="20"/>
@@ -780,17 +1393,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -817,608 +1419,6 @@
           <color theme="6" tint="0.39997558519241921"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="6"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="22"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="6"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="6"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color rgb="FF333333"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="6"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1566,66 +1566,66 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ID CARD" dataDxfId="42"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="FULL NAME" dataDxfId="41"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ADDRESS" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="TEL" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="EMAIL" dataDxfId="0" dataCellStyle="Hyperlink"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="NOTE" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="TEL" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="EMAIL" dataDxfId="38" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="NOTE" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table6" displayName="Table6" ref="A1:F3" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table6" displayName="Table6" ref="A1:F3" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33">
   <autoFilter ref="A1:F3" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="HOTEL ID" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="NAME" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="STAR LEVEL" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ADDRESS" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="CITY" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="DESCRIPTION" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="HOTEL ID" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="NAME" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="STAR LEVEL" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ADDRESS" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="CITY" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="DESCRIPTION" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table7" displayName="Table7" ref="A1:F31" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table7" displayName="Table7" ref="A1:F31" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23">
   <autoFilter ref="A1:F31" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name=" ROOM ID" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOTEL ID" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="NAME" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="TYPE" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="PRICE" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="DESCRIPTION" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name=" ROOM ID" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOTEL ID" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="NAME" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="TYPE" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="PRICE" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="DESCRIPTION" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table8" displayName="Table8" ref="A1:D11" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table8" displayName="Table8" ref="A1:D11" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
   <autoFilter ref="A1:D11" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="ID" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="NAME" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="UNITY" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="PRICE" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="ID" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="NAME" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="UNITY" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="PRICE" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table9" displayName="Table9" ref="A1:E11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table9" displayName="Table9" ref="A1:E11" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
   <autoFilter ref="A1:E11" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="ID" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="USER NAME" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="FULL NAME" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="PASSWORD" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="POSITION" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="USER NAME" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="FULL NAME" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="PASSWORD" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="POSITION" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1931,7 +1931,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2359,8 +2359,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2946,7 +2946,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
